--- a/NFLStats/Aggregates/P_aggregate.xlsx
+++ b/NFLStats/Aggregates/P_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,156 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Mitch Wishnowsky</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Mitch Wishnowsky</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>66.33333333333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Mitch Wishnowsky</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>2.333333333333329</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Tress Way</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Tress Way</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>46.56666666666666</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>69.33333333333333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Tress Way</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>-2.100000000000001</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>-0.6666666666666714</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Bradley Pinion</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Bradley Pinion</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Bradley Pinion</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
